--- a/ocms/src/test/resources/TestData/OCMFrequentlyHitThresholdReport.xlsx
+++ b/ocms/src/test/resources/TestData/OCMFrequentlyHitThresholdReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154B4848-E0C7-48AD-B06C-12A63DF541D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31351507-263F-42FF-B80A-61A44C6E08A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="43">
   <si>
     <t>Report Channel</t>
   </si>
@@ -146,13 +146,6 @@
   </si>
   <si>
     <t>g</t>
-  </si>
-  <si>
-    <t>SELECT [AgentName] as[Agent Name],[OldStatus] AS [Aux State],[dbo].[SECONDSTOhhmmss](SUM(LEFT([OldStatusTimeSpend],2) * 3600 + SUBSTRING([OldStatusTimeSpend], 4,2) * 60 + SUBSTRING([OldStatusTimeSpend], 7,2))) AS [Total Time Spent],
-FORMAT(MAX([InsertedDateTime]),'dd/MM/yyyy HH:mm:ss') as [Last Threshold Date Time],COUNT(1) AS [Threshold Count], TeamName as [Team Name] 
-FROM [dbo].[TDM_Alerts] WHERE [InsertedDateTime]&gt;='ReportBeforeDate' AND [InsertedDateTime]&lt;='ReportAfterDate' 
-AND [AgentName] like 'AgentNameCapturedFromUI'
-GROUP BY [AgentName],[OldStatus], [TeamName] ORDER BY [Threshold Count] DESC,[Last Threshold Date Time] DESC;</t>
   </si>
   <si>
     <t>26-10-2020 00:00:00</t>
@@ -167,12 +160,22 @@
 WITH(NOLOCK) WHERE [InsertedDateTime]&gt;='ReportBeforeDate' AND [InsertedDateTime]&lt;='ReportAfterDate'
 GROUP BY [AgentName],[AgentLoginID],[TeamName] ORDER BY [Threshold Count] DESC,[Inserted Date Time] DESC;</t>
   </si>
+  <si>
+    <t>SELECT [OldStatus] AS [Aux State],[dbo].[SECONDSTOhhmmss](SUM(LEFT([OldStatusTimeSpend],2) * 3600 + SUBSTRING([OldStatusTimeSpend], 4,2) * 60 + SUBSTRING([OldStatusTimeSpend], 7,2))) AS [Total Time Spent],
+FORMAT(MAX([InsertedDateTime]),'dd/MM/yyyy HH:mm:ss') as [Last Threshold Date Time],COUNT(1) AS [Threshold Count]
+FROM [dbo].[TDM_Alerts] WHERE [InsertedDateTime]&gt;='ReportBeforeDate' AND [InsertedDateTime]&lt;='ReportAfterDate' 
+AND [AgentName] like 'AgentNameCapturedFromUI'
+GROUP BY [AgentName],[OldStatus], [TeamName] ORDER BY [Threshold Count] DESC,[Last Threshold Date Time] DESC;</t>
+  </si>
+  <si>
+    <t>11-11-2020 00:00:00</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +187,12 @@
       <sz val="10"/>
       <color rgb="FF444444"/>
       <name val="OCMFont"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -528,12 +537,12 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.1796875" customWidth="1"/>
-    <col min="2" max="2" width="33.81640625" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
+    <col min="1" max="1" width="21.21875" customWidth="1"/>
+    <col min="2" max="2" width="33.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -573,21 +582,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" customWidth="1"/>
-    <col min="2" max="2" width="34.7265625" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="4" width="23.26953125" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="2" max="2" width="34.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="23.453125" customWidth="1"/>
-    <col min="8" max="8" width="20.26953125" customWidth="1"/>
-    <col min="9" max="9" width="14.1796875" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" customWidth="1"/>
+    <col min="8" max="8" width="20.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -632,8 +641,8 @@
       <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
+      <c r="E2" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -661,8 +670,8 @@
       <c r="D3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>22</v>
+      <c r="E3" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -687,8 +696,8 @@
       <c r="D4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>22</v>
+      <c r="E4" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -713,8 +722,8 @@
       <c r="D5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>22</v>
+      <c r="E5" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -740,7 +749,7 @@
         <v>21</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>15</v>
@@ -766,7 +775,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>15</v>
@@ -779,6 +788,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -791,12 +801,12 @@
       <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" customWidth="1"/>
-    <col min="2" max="2" width="33.453125" customWidth="1"/>
-    <col min="3" max="3" width="23.7265625" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" customWidth="1"/>
+    <col min="1" max="1" width="23.21875" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -840,13 +850,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.453125" customWidth="1"/>
-    <col min="2" max="2" width="36.453125" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -896,12 +906,12 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" customWidth="1"/>
-    <col min="2" max="2" width="32.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -945,13 +955,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" customWidth="1"/>
-    <col min="2" max="2" width="31.1796875" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="19.54296875" customWidth="1"/>
-    <col min="5" max="5" width="22.36328125" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="31.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -997,20 +1007,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="36.54296875" customWidth="1"/>
-    <col min="3" max="4" width="17.81640625" customWidth="1"/>
-    <col min="5" max="5" width="18.1796875" customWidth="1"/>
-    <col min="6" max="6" width="30.81640625" customWidth="1"/>
-    <col min="7" max="7" width="19.26953125" customWidth="1"/>
-    <col min="8" max="8" width="14.7265625" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" customWidth="1"/>
-    <col min="10" max="10" width="15.453125" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" customWidth="1"/>
+    <col min="3" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" customWidth="1"/>
+    <col min="6" max="6" width="30.77734375" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1103,19 +1113,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="24.7265625" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" customWidth="1"/>
-    <col min="4" max="4" width="29.54296875" customWidth="1"/>
-    <col min="5" max="5" width="31.26953125" customWidth="1"/>
+    <col min="1" max="2" width="24.77734375" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" customWidth="1"/>
+    <col min="5" max="5" width="31.21875" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="23.1796875" customWidth="1"/>
+    <col min="8" max="8" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1141,7 +1151,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="406">
+    <row r="2" spans="1:7" ht="403.2">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
@@ -1152,16 +1162,16 @@
         <v>8</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
